--- a/output/동부대로_W_여름_배출량/동부대로_W_여름_배출량_PM25_재비산.xlsx
+++ b/output/동부대로_W_여름_배출량/동부대로_W_여름_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1204 +397,1228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.3566241674405395</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.03709332415067982</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.06941048244622822</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>0.05278954980511685</v>
+      </c>
+      <c r="F2">
         <v>0.02892674086223255</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>0.1160338169872421</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>0.6080885318869222</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>0.6608780816920391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.2703441269307315</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.1041157236693423</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>0.0351930332034112</v>
+      </c>
+      <c r="F3">
         <v>0.0674957286785426</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>0.1353727864851158</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>0.5932255046854522</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>0.6284185378888634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.3297814881708214</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.01059809261447995</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.06941048244622822</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4">
         <v>0.0674957286785426</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+      <c r="I4">
         <v>0.5159637309058195</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.3796321782431549</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0211961852289599</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.05205786183467116</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>0.0351930332034112</v>
+      </c>
+      <c r="F5">
         <v>0.06267460520150385</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.5636985616747937</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>0.598891594878205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.348954830506334</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.1214683442808994</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>0.0175965166017056</v>
+      </c>
+      <c r="F6">
         <v>0.09642246954077514</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>0.1160338169872421</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>0.6987766002369706</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>0.7163731168386762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.3719628413089496</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.01059809261447995</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.1561735855040135</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>0.1055790996102337</v>
+      </c>
+      <c r="F7">
         <v>0.07713797563262011</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>0.1547117559829895</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>0.7705842510430526</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>0.8761633506532863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.3930535178780138</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.04769141676515978</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.1041157236693423</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>0.0175965166017056</v>
+      </c>
+      <c r="F8">
         <v>0.05303235824742634</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>0.1547117559829895</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>0.7526047725429317</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>0.7702012891446373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.4275655340819369</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.0211961852289599</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.2429366885617988</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>0.1407721328136448</v>
+      </c>
+      <c r="F9">
         <v>0.09160134606373641</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>0.07735587799149475</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>0.8606556319279267</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>1.001427764741571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.5790349385324883</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.1908788267271276</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>0.07038606640682241</v>
+      </c>
+      <c r="F10">
         <v>0.1060647164948527</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>0.01933896949787369</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>0.9112145901740624</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>0.9816006565808848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.719000337581733</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.005299046307239976</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.1735262061155705</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>0.0175965166017056</v>
+      </c>
+      <c r="F11">
         <v>0.09642246954077514</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.01933896949787369</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>1.013587029043192</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>1.031183545644898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.513845574591745</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.02649523153619987</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.06941048244622822</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>0.05278954980511685</v>
+      </c>
+      <c r="F12">
         <v>0.03856898781631005</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.01933896949787369</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>0.6676592458883569</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>0.7204487956934738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.467829552986514</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.0211961852289599</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.1388209648924564</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13">
         <v>0.04821123477038757</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="I13">
         <v>0.7147358768740653</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.2760961296313854</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.05278954980511685</v>
+      </c>
+      <c r="F14">
         <v>0.01928449390815503</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.05801690849362106</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>0.3692946709548814</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>0.4220842207599983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.2089894314570903</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.02649523153619987</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.06941048244622822</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>0.0175965166017056</v>
+      </c>
+      <c r="G15">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>0.3435730844352657</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>0.3611696010369713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1284613936479362</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.03709332415067982</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.01735262061155705</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.0175965166017056</v>
+      </c>
+      <c r="F16">
         <v>0.01446337043111627</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.01933896949787369</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>0.2167096783391631</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>0.2343061949408687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.06902403240784635</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.0211961852289599</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>0.09022021763680625</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.04218135313812831</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.02649523153619987</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.01735262061155705</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.004821123477038757</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>0.09085032876292398</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.04985069007233349</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.01059809261447995</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>0.01446337043111627</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="I19">
         <v>0.1135900921136771</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.0287600135032693</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.01059809261447995</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="F20">
         <v>0.004821123477038757</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.01933896949787369</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="I20">
         <v>0.0635181990926617</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.06518936394074377</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.005299046307239976</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.05205786183467116</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21">
         <v>0.009642246954077513</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
+      <c r="I21">
         <v>0.1708664580324798</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.1322960621150388</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.005299046307239976</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.03470524122311411</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>0.1231756162119393</v>
+      </c>
+      <c r="F22">
         <v>0.03856898781631005</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>0.1353727864851158</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.01891958434151335</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.3651617082883321</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>0.4883373245002714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>0.3642935043747447</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.02649523153619987</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.08676310305778526</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>0.08798258300852804</v>
+      </c>
+      <c r="F23">
         <v>0.07231685215558137</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>0.09669484748936844</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>0.6465635386136797</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>0.7345461216222077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0.5656135988976296</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.02649523153619987</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.2429366885617988</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>0.05278954980511685</v>
+      </c>
+      <c r="F24">
         <v>0.0674957286785426</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>0.09669484748936844</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>0.9992360951635393</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>1.052025644968656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0.7592643564863097</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.03179427784343986</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.2255840679502417</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>0.1055790996102337</v>
+      </c>
+      <c r="F25">
         <v>0.0674957286785426</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>0.07735587799149475</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H25" t="n">
-        <v>1.170954101120785</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>1.276533200731019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>0.4256481998483856</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.0423923704579198</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.1041157236693423</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>0.07038606640682241</v>
+      </c>
+      <c r="F26">
         <v>0.03856898781631005</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>0.1547117559829895</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.774896829945704</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>0.8452828963525264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>0.3240294854701675</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.0211961852289599</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.1388209648924564</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>0.05278954980511685</v>
+      </c>
+      <c r="F27">
         <v>0.08678022258669764</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>0.1740507254808631</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.7543373758299012</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>0.8071269256350181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0.3623761701411933</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.08676310305778526</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28">
         <v>0.08195909910965887</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>0.05801690849362106</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28">
         <v>0.614472211894735</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>0.4429042079503475</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.01059809261447995</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.1388209648924564</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>0.0175965166017056</v>
+      </c>
+      <c r="F29">
         <v>0.08195909910965887</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>0.07735587799149475</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>0.7516382425584375</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>0.7692347591601431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>0.3700455070753984</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.05205786183467116</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>0.05278954980511685</v>
+      </c>
+      <c r="F30">
         <v>0.07713797563262011</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.01891958434151335</v>
       </c>
-      <c r="H30" t="n">
-        <v>0.5727360068016702</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>0.6255255566067871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>0.341285493572129</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.005299046307239976</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.1041157236693423</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>0.0351930332034112</v>
+      </c>
+      <c r="F31">
         <v>0.07713797563262011</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>0.5278382391813314</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>0.5630312723847426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>0.4697468872200654</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.0423923704579198</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.1041157236693423</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32">
         <v>0.0674957286785426</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>0.07735587799149475</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32">
         <v>0.7705663801881215</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.4601602160523088</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.03179427784343986</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.1908788267271276</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>0.1055790996102337</v>
+      </c>
+      <c r="F33">
         <v>0.09642246954077514</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>0.01933896949787369</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>0.7985947596615252</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>0.9041738592717589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.5982082808680015</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.0211961852289599</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.3123471710080269</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>0.1055790996102337</v>
+      </c>
+      <c r="F34">
         <v>0.07713797563262011</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.01891958434151335</v>
       </c>
-      <c r="H34" t="n">
-        <v>1.027809197079122</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>1.133388296689355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.8436270627625666</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.1735262061155705</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>0.0351930332034112</v>
+      </c>
+      <c r="F35">
         <v>0.06267460520150385</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H35" t="n">
-        <v>1.127965605246145</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>1.163158638449556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.5023415691904372</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.02649523153619987</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.2429366885617988</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>0.0175965166017056</v>
+      </c>
+      <c r="F36">
         <v>0.07231685215558137</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>0.07735587799149475</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H36" t="n">
-        <v>0.9309060116062686</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>0.9485025282079742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.3585415016740904</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.0423923704579198</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.1214683442808994</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>0.0175965166017056</v>
+      </c>
+      <c r="F37">
         <v>0.0337478643392713</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.05801690849362106</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>0.614166989245802</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>0.6317635058475076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.348954830506334</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.02649523153619987</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.03470524122311411</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.05278954980511685</v>
+      </c>
+      <c r="F38">
         <v>0.0337478643392713</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>0.4825811066006667</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>0.5353706564057835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.2185761026248468</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.05299046307239974</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.08676310305778526</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39">
         <v>0.009642246954077513</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.05801690849362106</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39">
         <v>0.4354486163734869</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.1227093909472824</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.01059809261447995</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="F40">
         <v>0.009642246954077513</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.01933896949787369</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40">
         <v>0.1622887000137135</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.08628004050980795</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.01446337043111627</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>0.1166405498626441</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.04026401890457703</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.0211961852289599</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.01735262061155705</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.05801690849362106</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>0.1368297332387151</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.03067734773682059</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>0.02410561738519379</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.01933896949787369</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43">
         <v>0.07412193461988806</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.02300801080261546</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.01735262061155705</v>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.03867793899574738</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="I44">
         <v>0.07903857040991988</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.07861070357560276</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.005299046307239976</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.01735262061155705</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45">
         <v>0.04339011129334882</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>0.05801690849362106</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
+      <c r="I45">
         <v>0.2026693902813697</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.1246267251808337</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.03470524122311411</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>0.07038606640682241</v>
+      </c>
+      <c r="F46">
         <v>0.04339011129334882</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>0.07735587799149475</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>0.2959750946105114</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>0.3663611610173337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0.4103095259799757</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.01589713892171993</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.1735262061155705</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>0.1583686494153504</v>
+      </c>
+      <c r="F47">
         <v>0.06267460520150385</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>0.1933896949787369</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.009459792170756674</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.8652569633682636</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>1.023625612783614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0.5982082808680015</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.01059809261447995</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.2429366885617988</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>0.1055790996102337</v>
+      </c>
+      <c r="F48">
         <v>0.06267460520150385</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>0.1160338169872421</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>1.030451484233026</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>1.13603058384326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>0.648058970940335</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.03709332415067982</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.1908788267271276</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>0.1231756162119393</v>
+      </c>
+      <c r="F49">
         <v>0.07713797563262011</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>0.1547117559829895</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.0378391686830267</v>
       </c>
-      <c r="H49" t="n">
-        <v>1.145720022116779</v>
+      <c r="I49">
+        <v>1.268895638328718</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>